--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/20/seed1/result_data_RandomForest.xlsx
@@ -474,7 +474,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>12.71390000000001</v>
+        <v>12.2006</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.40309999999999</v>
+        <v>-11.49929999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.31220000000001</v>
+        <v>-21.32050000000002</v>
       </c>
       <c r="B4" t="n">
-        <v>4.901300000000003</v>
+        <v>4.674200000000003</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.08869999999999</v>
+        <v>-11.07989999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -516,7 +516,7 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.428599999999997</v>
+        <v>5.455399999999996</v>
       </c>
       <c r="C5" t="n">
         <v>-15.14</v>
@@ -525,15 +525,15 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.10559999999999</v>
+        <v>13.31809999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.73380000000002</v>
+        <v>-21.65080000000002</v>
       </c>
       <c r="B6" t="n">
-        <v>5.486599999999997</v>
+        <v>5.273899999999994</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.41170000000001</v>
+        <v>-21.28740000000002</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.40620000000002</v>
+        <v>-21.45740000000003</v>
       </c>
       <c r="B8" t="n">
-        <v>4.839800000000001</v>
+        <v>4.934</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.7647</v>
+        <v>-11.4373</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.7906</v>
+        <v>-14.40440000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.7002</v>
+        <v>-11.28649999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.33360000000001</v>
+        <v>-21.46800000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>5.236000000000001</v>
+        <v>5.427299999999998</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.46640000000002</v>
+        <v>-14.68580000000001</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.81090000000003</v>
+        <v>-22.60080000000003</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -780,12 +780,12 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.29249999999998</v>
+        <v>13.30989999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.60699999999999</v>
+        <v>-20.5837</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.174200000000004</v>
+        <v>5.173900000000003</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.23169999999999</v>
+        <v>-11.49189999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
